--- a/final_data.xlsx
+++ b/final_data.xlsx
@@ -1352,7 +1352,11 @@
       <c r="C34" t="n">
         <v>87025</v>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>JBTRASTAM</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
         <v>100</v>
@@ -1374,7 +1378,11 @@
       <c r="C35" t="n">
         <v>87026</v>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>JOBPFFRAU</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
         <v>100</v>
@@ -1396,7 +1404,11 @@
       <c r="C36" t="n">
         <v>87027</v>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>JOBPFFRAU</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
         <v>100</v>
@@ -1418,7 +1430,11 @@
       <c r="C37" t="n">
         <v>87028</v>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>JOBPFFRAU</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
         <v>100</v>
@@ -1440,7 +1456,11 @@
       <c r="C38" t="n">
         <v>87029</v>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>JOBPFFRAU</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
         <v>100</v>
@@ -1462,7 +1482,11 @@
       <c r="C39" t="n">
         <v>87030</v>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>JOBSANEEX</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
         <v>100</v>
@@ -1484,7 +1508,11 @@
       <c r="C40" t="n">
         <v>87031</v>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>JOBSANEEX</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
         <v>100</v>
@@ -1506,7 +1534,11 @@
       <c r="C41" t="n">
         <v>87033</v>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>JOBSANEEX</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
         <v>100</v>
@@ -1528,7 +1560,11 @@
       <c r="C42" t="n">
         <v>87034</v>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>JOBSANEEX</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
         <v>100</v>
@@ -1550,7 +1586,11 @@
       <c r="C43" t="n">
         <v>87060</v>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>JOBIMPDMDP</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>SSCC</t>
@@ -1576,7 +1616,11 @@
       <c r="C44" t="n">
         <v>87067</v>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>JOBIMPDMDP</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>SSCC</t>
@@ -1602,7 +1646,11 @@
       <c r="C45" t="n">
         <v>87068</v>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>JOBIMPDMDP</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>SSCC</t>
@@ -1628,7 +1676,11 @@
       <c r="C46" t="n">
         <v>87069</v>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>JOBIMPDMDP</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>SSCC</t>
@@ -1654,7 +1706,11 @@
       <c r="C47" t="n">
         <v>87070</v>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>JOBIMPDMDP</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>SSCC</t>
@@ -1680,7 +1736,11 @@
       <c r="C48" t="n">
         <v>87071</v>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>JOBIMPDMDP</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>SSCC</t>
@@ -1706,7 +1766,11 @@
       <c r="C49" t="n">
         <v>87072</v>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>JOBIMPDMDP</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>SSCC</t>

--- a/final_data.xlsx
+++ b/final_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
